--- a/QUALITY DOCUMENTS/Finals Drafts/BSSV - Test Cases - Iteration 2 - With New Feature.xlsx
+++ b/QUALITY DOCUMENTS/Finals Drafts/BSSV - Test Cases - Iteration 2 - With New Feature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asiapacificcollege.sharepoint.com/sites/QUALITYMI201MI203T12023-2024/Shared Documents/Group 03 -  Nacor Industries/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2915" documentId="11_B01762ACBB527A9D5C28693406BCC89ABB86F51E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF65B010-11C7-4939-9145-48D41917C742}"/>
+  <xr:revisionPtr revIDLastSave="2958" documentId="11_B01762ACBB527A9D5C28693406BCC89ABB86F51E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63CE6270-C538-419E-BF82-461D010457A1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M1-BarangayEmployeeAuthenticate" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="472">
   <si>
     <t>TEST CASE PLANNING AND EXECUTION</t>
   </si>
@@ -1595,6 +1595,22 @@
 CTC No.:</t>
   </si>
   <si>
+    <t>TC_143</t>
+  </si>
+  <si>
+    <t>Barangay Treasurer Proceeds to Confirm the Payment Onstite.</t>
+  </si>
+  <si>
+    <t>"OR No.: 123
+CTC No.:"123</t>
+  </si>
+  <si>
+    <t>Should display the payment Confirmation</t>
+  </si>
+  <si>
+    <t>Can see the payment online confirmation details.</t>
+  </si>
+  <si>
     <t>UC8.3 Process Online Payment</t>
   </si>
   <si>
@@ -1631,6 +1647,20 @@
     <t>Ref No: 123455
 OR No.: 
 CTC No.:</t>
+  </si>
+  <si>
+    <t>TC_150</t>
+  </si>
+  <si>
+    <t>Barangay Treasurer Proceeds to Confirm the Payment Online</t>
+  </si>
+  <si>
+    <t>Ref No: 123455
+OR No.: 123
+CTC No.:123</t>
+  </si>
+  <si>
+    <t>M7-UC83-TC_143</t>
   </si>
   <si>
     <t>AVAILABLE TEST DATA</t>
@@ -1700,7 +1730,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1869,6 +1899,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -2083,7 +2119,7 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2303,6 +2339,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4079,7 +4118,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="78.42578125" bestFit="1" customWidth="1"/>
@@ -4093,7 +4132,7 @@
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4107,7 +4146,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -4129,7 +4168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -4145,14 +4184,14 @@
       </c>
       <c r="G3" s="8">
         <f ca="1">TODAY()</f>
-        <v>45224</v>
+        <v>45247</v>
       </c>
       <c r="H3" s="3"/>
       <c r="J3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -4172,7 +4211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="68" t="s">
         <v>16</v>
@@ -4186,14 +4225,14 @@
       </c>
       <c r="G5" s="12">
         <f ca="1">TODAY()</f>
-        <v>45224</v>
+        <v>45247</v>
       </c>
       <c r="H5" s="3"/>
       <c r="J5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="14"/>
@@ -4202,7 +4241,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -4219,7 +4258,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="154.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="154.15" customHeight="1" thickBot="1">
       <c r="A8" s="3"/>
       <c r="B8" s="16" t="str">
         <f>$B$5</f>
@@ -4237,7 +4276,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="14"/>
@@ -4247,7 +4286,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="28.5">
       <c r="A10" s="21" t="s">
         <v>22</v>
       </c>
@@ -4277,7 +4316,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="70" t="s">
         <v>30</v>
       </c>
@@ -4290,7 +4329,7 @@
       <c r="H11" s="70"/>
       <c r="I11" s="70"/>
     </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30">
       <c r="A12" s="37" t="s">
         <v>31</v>
       </c>
@@ -4316,7 +4355,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="33">
       <c r="A13" s="37" t="str">
         <f>[1]RequirementsTraceabilityMatrix!D5</f>
         <v>TC_02</v>
@@ -4345,7 +4384,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="82.5">
       <c r="A14" s="37" t="str">
         <f>[1]RequirementsTraceabilityMatrix!D6</f>
         <v>TC_03</v>
@@ -4374,7 +4413,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="49.5">
       <c r="A15" s="37" t="str">
         <f>[1]RequirementsTraceabilityMatrix!D7</f>
         <v>TC_04</v>
@@ -4437,7 +4476,7 @@
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="50.28515625" customWidth="1"/>
@@ -4451,7 +4490,7 @@
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4465,7 +4504,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -4487,7 +4526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
         <v>44</v>
@@ -4503,14 +4542,14 @@
       </c>
       <c r="F3" s="8">
         <f ca="1">TODAY()</f>
-        <v>45224</v>
+        <v>45247</v>
       </c>
       <c r="H3" s="3"/>
       <c r="J3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -4530,7 +4569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="68" t="s">
         <v>46</v>
@@ -4544,14 +4583,14 @@
       </c>
       <c r="F5" s="12">
         <f ca="1">TODAY()</f>
-        <v>45224</v>
+        <v>45247</v>
       </c>
       <c r="H5" s="3"/>
       <c r="J5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="14"/>
@@ -4560,7 +4599,7 @@
       <c r="F6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -4577,7 +4616,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="125.25" customHeight="1" thickBot="1">
       <c r="A8" s="3"/>
       <c r="B8" s="16" t="str">
         <f>$B$5</f>
@@ -4595,7 +4634,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="14"/>
@@ -4605,7 +4644,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="33" t="s">
         <v>22</v>
       </c>
@@ -4634,7 +4673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="34.5" customHeight="1">
       <c r="A11" s="72" t="s">
         <v>48</v>
       </c>
@@ -4647,7 +4686,7 @@
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
     </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="33">
       <c r="A12" s="35" t="str" cm="1">
         <f t="array" ref="A12:B12">[1]RequirementsTraceabilityMatrix!D8:E8</f>
         <v>TC_05</v>
@@ -4675,7 +4714,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="33">
       <c r="A13" s="35" t="str" cm="1">
         <f t="array" ref="A13:B13">[1]RequirementsTraceabilityMatrix!D9:E9</f>
         <v>TC_06</v>
@@ -4705,7 +4744,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="283.5">
       <c r="A14" s="35" t="str" cm="1">
         <f t="array" ref="A14:B14">[1]RequirementsTraceabilityMatrix!D10:E10</f>
         <v>TC_07</v>
@@ -4735,7 +4774,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="243" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="243">
       <c r="A15" s="35" t="str" cm="1">
         <f t="array" ref="A15:B15">[1]RequirementsTraceabilityMatrix!D11:E11</f>
         <v>TC_08</v>
@@ -4763,7 +4802,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="283.5">
       <c r="A16" s="35" t="str" cm="1">
         <f t="array" ref="A16:B16">[1]RequirementsTraceabilityMatrix!D12:E12</f>
         <v>TC_09</v>
@@ -4791,7 +4830,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="33">
       <c r="A17" s="35" t="str" cm="1">
         <f t="array" ref="A17:B17">[1]RequirementsTraceabilityMatrix!D13:E13</f>
         <v>TC_10</v>
@@ -4819,7 +4858,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30.75" customHeight="1">
       <c r="A18" s="71" t="s">
         <v>71</v>
       </c>
@@ -4832,7 +4871,7 @@
       <c r="H18" s="71"/>
       <c r="I18" s="71"/>
     </row>
-    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="33">
       <c r="A19" s="35" t="str" cm="1">
         <f t="array" ref="A19:B19">[1]RequirementsTraceabilityMatrix!D14:E14</f>
         <v>TC_11</v>
@@ -4858,7 +4897,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="37"/>
     </row>
-    <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="49.5">
       <c r="A20" s="35" t="str" cm="1">
         <f t="array" ref="A20:B20">[1]RequirementsTraceabilityMatrix!D15:E15</f>
         <v>TC_12</v>
@@ -4888,7 +4927,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="49.5">
       <c r="A21" s="35" t="str" cm="1">
         <f t="array" ref="A21:B21">[1]RequirementsTraceabilityMatrix!D16:E16</f>
         <v>TC_13</v>
@@ -4916,7 +4955,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="33">
       <c r="A22" s="35" t="str" cm="1">
         <f t="array" ref="A22:B22">[1]RequirementsTraceabilityMatrix!D17:E17</f>
         <v>TC_14</v>
@@ -4944,7 +4983,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="32.25" customHeight="1">
       <c r="A23" s="71" t="s">
         <v>84</v>
       </c>
@@ -4957,7 +4996,7 @@
       <c r="H23" s="71"/>
       <c r="I23" s="71"/>
     </row>
-    <row r="24" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="49.5">
       <c r="A24" s="35" t="str" cm="1">
         <f t="array" ref="A24:B24">[1]RequirementsTraceabilityMatrix!D18:E18</f>
         <v>TC_15</v>
@@ -4987,7 +5026,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="33">
       <c r="A25" s="35" t="str" cm="1">
         <f t="array" ref="A25:B25">[1]RequirementsTraceabilityMatrix!D19:E19</f>
         <v>TC_16</v>
@@ -5015,7 +5054,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="49.5">
       <c r="A26" s="35" t="str" cm="1">
         <f t="array" ref="A26:B26">[1]RequirementsTraceabilityMatrix!D20:E20</f>
         <v>TC_17</v>
@@ -5043,7 +5082,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="33">
       <c r="A27" s="35" t="str" cm="1">
         <f t="array" ref="A27:B27">[1]RequirementsTraceabilityMatrix!D21:E21</f>
         <v>TC_18</v>
@@ -5071,7 +5110,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="27" customHeight="1">
       <c r="A28" s="71" t="s">
         <v>95</v>
       </c>
@@ -5084,7 +5123,7 @@
       <c r="H28" s="71"/>
       <c r="I28" s="71"/>
     </row>
-    <row r="29" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="49.5">
       <c r="A29" s="35" t="str" cm="1">
         <f t="array" ref="A29:B29">[1]RequirementsTraceabilityMatrix!D22:E22</f>
         <v>TC_19</v>
@@ -5112,7 +5151,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="33">
       <c r="A30" s="35" t="str" cm="1">
         <f t="array" ref="A30:B30">[1]RequirementsTraceabilityMatrix!D23:E23</f>
         <v>TC_20</v>
@@ -5140,7 +5179,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="33">
       <c r="A31" s="35" t="str" cm="1">
         <f t="array" ref="A31:B31">[1]RequirementsTraceabilityMatrix!D24:E24</f>
         <v>TC_21</v>
@@ -5168,7 +5207,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="33">
       <c r="A32" s="35" t="str" cm="1">
         <f t="array" ref="A32:B32">[1]RequirementsTraceabilityMatrix!D25:E25</f>
         <v>TC_22</v>
@@ -5196,7 +5235,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="283.5">
       <c r="A33" s="35" t="str" cm="1">
         <f t="array" ref="A33:B33">[1]RequirementsTraceabilityMatrix!D26:E26</f>
         <v>TC_23</v>
@@ -5224,7 +5263,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="283.5">
       <c r="A34" s="35" t="str" cm="1">
         <f t="array" ref="A34:B34">[1]RequirementsTraceabilityMatrix!D27:E27</f>
         <v>TC_24</v>
@@ -5252,7 +5291,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="283.5">
       <c r="A35" s="35" t="str" cm="1">
         <f t="array" ref="A35:B35">[1]RequirementsTraceabilityMatrix!D28:E28</f>
         <v>TC_25</v>
@@ -5280,7 +5319,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="33">
       <c r="A36" s="35" t="str" cm="1">
         <f t="array" ref="A36:B36">[1]RequirementsTraceabilityMatrix!D29:E29</f>
         <v>TC_26</v>
@@ -5308,7 +5347,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="33">
       <c r="A37" s="35" t="str" cm="1">
         <f t="array" ref="A37:B37">[1]RequirementsTraceabilityMatrix!D30:E30</f>
         <v>TC_27</v>
@@ -5336,7 +5375,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="49.5">
       <c r="A38" s="35" t="str" cm="1">
         <f t="array" ref="A38:B38">[1]RequirementsTraceabilityMatrix!D31:E31</f>
         <v>TC_28</v>
@@ -5364,7 +5403,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="49.5">
       <c r="A39" s="35" t="str" cm="1">
         <f t="array" ref="A39:B39">[1]RequirementsTraceabilityMatrix!D32:E32</f>
         <v>TC_29</v>
@@ -5392,7 +5431,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="33">
       <c r="A40" s="35" t="str" cm="1">
         <f t="array" ref="A40:B40">[1]RequirementsTraceabilityMatrix!D33:E33</f>
         <v>TC_30</v>
@@ -5420,7 +5459,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="16.5" customHeight="1">
       <c r="A41" s="71" t="s">
         <v>129</v>
       </c>
@@ -5433,7 +5472,7 @@
       <c r="H41" s="71"/>
       <c r="I41" s="71"/>
     </row>
-    <row r="42" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="33">
       <c r="A42" s="35" t="str" cm="1">
         <f t="array" ref="A42:B42">[1]RequirementsTraceabilityMatrix!D34:E34</f>
         <v>TC_31</v>
@@ -5463,7 +5502,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="33">
       <c r="A43" s="35" t="str" cm="1">
         <f t="array" ref="A43:B43">[1]RequirementsTraceabilityMatrix!D35:E35</f>
         <v>TC_32</v>
@@ -5490,7 +5529,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="49.5">
       <c r="A44" s="35" t="str" cm="1">
         <f t="array" ref="A44:B44">[1]RequirementsTraceabilityMatrix!D36:E36</f>
         <v>TC_33</v>
@@ -5518,7 +5557,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="49.5">
       <c r="A45" s="35" t="str" cm="1">
         <f t="array" ref="A45:B45">[1]RequirementsTraceabilityMatrix!D37:E37</f>
         <v>TC_34</v>
@@ -5546,7 +5585,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="49.5">
       <c r="A46" s="35" t="str" cm="1">
         <f t="array" ref="A46:B46">[1]RequirementsTraceabilityMatrix!D38:E38</f>
         <v>TC_35</v>
@@ -5574,7 +5613,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="35" t="str" cm="1">
         <f t="array" ref="A47:B47">[1]RequirementsTraceabilityMatrix!D39:E39</f>
         <v>TC_36</v>
@@ -5602,7 +5641,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="33">
       <c r="A48" s="35" t="str" cm="1">
         <f t="array" ref="A48:B48">[1]RequirementsTraceabilityMatrix!D40:E40</f>
         <v>TC_37</v>
@@ -5630,7 +5669,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="33">
       <c r="A49" s="35" t="str" cm="1">
         <f t="array" ref="A49:B49">[1]RequirementsTraceabilityMatrix!D41:E41</f>
         <v>TC_38</v>
@@ -5658,7 +5697,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="33">
       <c r="A50" s="35" t="str" cm="1">
         <f t="array" ref="A50:B50">[1]RequirementsTraceabilityMatrix!D42:E42</f>
         <v>TC_39</v>
@@ -5686,7 +5725,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="33">
       <c r="A51" s="35" t="str" cm="1">
         <f t="array" ref="A51:B51">[1]RequirementsTraceabilityMatrix!D43:E43</f>
         <v>TC_40</v>
@@ -5714,7 +5753,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="35" t="str" cm="1">
         <f t="array" ref="A52:B52">[1]RequirementsTraceabilityMatrix!D44:E44</f>
         <v>TC_41</v>
@@ -5742,7 +5781,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="33">
       <c r="A53" s="35" t="str" cm="1">
         <f t="array" ref="A53:B53">[1]RequirementsTraceabilityMatrix!D45:E45</f>
         <v>TC_42</v>
@@ -5770,7 +5809,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="33">
       <c r="A54" s="35" t="str" cm="1">
         <f t="array" ref="A54:B54">[1]RequirementsTraceabilityMatrix!D46:E46</f>
         <v>TC_43</v>
@@ -5798,7 +5837,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="33">
       <c r="A55" s="35" t="str" cm="1">
         <f t="array" ref="A55:B55">[1]RequirementsTraceabilityMatrix!D47:E47</f>
         <v>TC_44</v>
@@ -5826,7 +5865,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" s="35" t="str" cm="1">
         <f t="array" ref="A56:B56">[1]RequirementsTraceabilityMatrix!D48:E48</f>
         <v>TC_45</v>
@@ -5854,7 +5893,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="35" t="str" cm="1">
         <f t="array" ref="A57:B57">[1]RequirementsTraceabilityMatrix!D49:E49</f>
         <v>TC_46</v>
@@ -5919,7 +5958,7 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="50.28515625" customWidth="1"/>
@@ -5933,7 +5972,7 @@
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5947,7 +5986,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -5969,7 +6008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
         <v>168</v>
@@ -5985,14 +6024,14 @@
       </c>
       <c r="F3" s="8">
         <f ca="1">TODAY()</f>
-        <v>45224</v>
+        <v>45247</v>
       </c>
       <c r="G3" s="3"/>
       <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -6012,7 +6051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="68" t="s">
         <v>170</v>
@@ -6026,14 +6065,14 @@
       </c>
       <c r="F5" s="12">
         <f ca="1">TODAY()</f>
-        <v>45224</v>
+        <v>45247</v>
       </c>
       <c r="G5" s="3"/>
       <c r="I5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="14"/>
@@ -6042,7 +6081,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -6059,7 +6098,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="125.25" customHeight="1" thickBot="1">
       <c r="A8" s="3"/>
       <c r="B8" s="16" t="str">
         <f>$B$5</f>
@@ -6077,7 +6116,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="14"/>
@@ -6087,7 +6126,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="33" t="s">
         <v>22</v>
       </c>
@@ -6116,7 +6155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="33.75" customHeight="1">
       <c r="A11" s="72" t="s">
         <v>172</v>
       </c>
@@ -6129,7 +6168,7 @@
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
     </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="33">
       <c r="A12" s="35" t="str" cm="1">
         <f t="array" ref="A12:B12">[1]RequirementsTraceabilityMatrix!D50:E50</f>
         <v>TC_47</v>
@@ -6157,7 +6196,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="33">
       <c r="A13" s="35" t="str" cm="1">
         <f t="array" ref="A13:B13">[1]RequirementsTraceabilityMatrix!D51:E51</f>
         <v>TC_48</v>
@@ -6187,7 +6226,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="49.5">
       <c r="A14" s="35" t="str" cm="1">
         <f t="array" ref="A14:B14">[1]RequirementsTraceabilityMatrix!D52:E52</f>
         <v>TC_49</v>
@@ -6214,7 +6253,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="33">
       <c r="A15" s="35" t="str" cm="1">
         <f t="array" ref="A15:B15">[1]RequirementsTraceabilityMatrix!D53:E53</f>
         <v>TC_50</v>
@@ -6242,7 +6281,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="49.5">
       <c r="A16" s="35" t="str" cm="1">
         <f t="array" ref="A16:B16">[1]RequirementsTraceabilityMatrix!D54:E54</f>
         <v>TC_51</v>
@@ -6270,7 +6309,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="49.5">
       <c r="A17" s="35" t="str" cm="1">
         <f t="array" ref="A17:B17">[1]RequirementsTraceabilityMatrix!D55:E55</f>
         <v>TC_52</v>
@@ -6298,7 +6337,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="27" customHeight="1">
       <c r="A18" s="71" t="s">
         <v>189</v>
       </c>
@@ -6311,7 +6350,7 @@
       <c r="H18" s="71"/>
       <c r="I18" s="71"/>
     </row>
-    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="33">
       <c r="A19" s="35" t="str" cm="1">
         <f t="array" ref="A19:B19">[1]RequirementsTraceabilityMatrix!D56:E56</f>
         <v>TC_53</v>
@@ -6341,7 +6380,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="49.5">
       <c r="A20" s="35" t="str" cm="1">
         <f t="array" ref="A20:B20">[1]RequirementsTraceabilityMatrix!D57:E57</f>
         <v>TC_54</v>
@@ -6369,7 +6408,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="49.5">
       <c r="A21" s="35" t="str" cm="1">
         <f t="array" ref="A21:B21">[1]RequirementsTraceabilityMatrix!D58:E58</f>
         <v>TC_55</v>
@@ -6430,7 +6469,7 @@
       <selection activeCell="A19" sqref="A19:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="66.5703125" customWidth="1"/>
@@ -6444,7 +6483,7 @@
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6458,7 +6497,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -6479,7 +6518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
         <v>193</v>
@@ -6495,13 +6534,13 @@
       </c>
       <c r="F3" s="8">
         <f ca="1">TODAY()</f>
-        <v>45224</v>
+        <v>45247</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -6520,7 +6559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="68" t="s">
         <v>195</v>
@@ -6534,13 +6573,13 @@
       </c>
       <c r="F5" s="12">
         <f ca="1">TODAY()</f>
-        <v>45224</v>
+        <v>45247</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="14"/>
@@ -6549,7 +6588,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -6566,7 +6605,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="125.25" customHeight="1" thickBot="1">
       <c r="A8" s="3"/>
       <c r="B8" s="16" t="str">
         <f>$B$5</f>
@@ -6584,7 +6623,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="14"/>
@@ -6594,7 +6633,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="25.5">
       <c r="A10" s="21" t="s">
         <v>22</v>
       </c>
@@ -6623,7 +6662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="28.5" customHeight="1">
       <c r="A11" s="73" t="s">
         <v>198</v>
       </c>
@@ -6636,7 +6675,7 @@
       <c r="H11" s="73"/>
       <c r="I11" s="73"/>
     </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="33">
       <c r="A12" s="37" t="str" cm="1">
         <f t="array" ref="A12:B12">[1]RequirementsTraceabilityMatrix!D59:E59</f>
         <v>TC_56</v>
@@ -6664,7 +6703,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="37" t="str" cm="1">
         <f t="array" ref="A13:B13">[1]RequirementsTraceabilityMatrix!D60:E60</f>
         <v>TC_57</v>
@@ -6692,7 +6731,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="33">
       <c r="A14" s="37" t="str" cm="1">
         <f t="array" ref="A14:B14">[1]RequirementsTraceabilityMatrix!D61:E61</f>
         <v>TC_58</v>
@@ -6720,7 +6759,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="33">
       <c r="A15" s="37" t="str" cm="1">
         <f t="array" ref="A15:B15">[1]RequirementsTraceabilityMatrix!D62:E62</f>
         <v>TC_59</v>
@@ -6748,7 +6787,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="33">
       <c r="A16" s="37" t="str" cm="1">
         <f t="array" ref="A16:B16">[1]RequirementsTraceabilityMatrix!D63:E63</f>
         <v>TC_60</v>
@@ -6776,7 +6815,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="33">
       <c r="A17" s="37" t="str" cm="1">
         <f t="array" ref="A17:B17">[1]RequirementsTraceabilityMatrix!D64:E64</f>
         <v>TC_61</v>
@@ -6804,7 +6843,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="37" t="str" cm="1">
         <f t="array" ref="A18:B18">[1]RequirementsTraceabilityMatrix!D65:E65</f>
         <v>TC_62</v>
@@ -6832,7 +6871,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="24" customHeight="1">
       <c r="A19" s="71" t="s">
         <v>219</v>
       </c>
@@ -6845,7 +6884,7 @@
       <c r="H19" s="71"/>
       <c r="I19" s="71"/>
     </row>
-    <row r="20" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="33">
       <c r="A20" s="37" t="str" cm="1">
         <f t="array" ref="A20:B20">[1]RequirementsTraceabilityMatrix!D66:E66</f>
         <v>TC_63</v>
@@ -6873,7 +6912,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="94.5">
       <c r="A21" s="37" t="str" cm="1">
         <f t="array" ref="A21:B21">[1]RequirementsTraceabilityMatrix!D67:E67</f>
         <v>TC_64</v>
@@ -6901,7 +6940,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="94.5">
       <c r="A22" s="37" t="str" cm="1">
         <f t="array" ref="A22:B22">[1]RequirementsTraceabilityMatrix!D68:E68</f>
         <v>TC_65</v>
@@ -6929,7 +6968,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="37" t="str" cm="1">
         <f t="array" ref="A23:B23">[1]RequirementsTraceabilityMatrix!D69:E69</f>
         <v>TC_66</v>
@@ -6957,7 +6996,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="27.75" customHeight="1">
       <c r="A24" s="71" t="s">
         <v>231</v>
       </c>
@@ -6970,7 +7009,7 @@
       <c r="H24" s="71"/>
       <c r="I24" s="71"/>
     </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="37" t="str" cm="1">
         <f t="array" ref="A25:B25">[1]RequirementsTraceabilityMatrix!D70:E70</f>
         <v>TC_67</v>
@@ -6998,7 +7037,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="148.5">
       <c r="A26" s="37" t="str" cm="1">
         <f t="array" ref="A26:B26">[1]RequirementsTraceabilityMatrix!D71:E71</f>
         <v>TC_68</v>
@@ -7026,7 +7065,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="148.5">
       <c r="A27" s="37" t="str" cm="1">
         <f t="array" ref="A27:B27">[1]RequirementsTraceabilityMatrix!D72:E72</f>
         <v>TC_69</v>
@@ -7054,7 +7093,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="37" t="str" cm="1">
         <f t="array" ref="A28:B28">[1]RequirementsTraceabilityMatrix!D73:E73</f>
         <v>TC_70</v>
@@ -7082,7 +7121,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="28.5" customHeight="1">
       <c r="A29" s="71" t="s">
         <v>243</v>
       </c>
@@ -7095,7 +7134,7 @@
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
     </row>
-    <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="33">
       <c r="A30" s="37" t="str" cm="1">
         <f t="array" ref="A30:B30">[1]RequirementsTraceabilityMatrix!D74:E74</f>
         <v>TC_71</v>
@@ -7123,7 +7162,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="148.5">
       <c r="A31" s="37" t="str" cm="1">
         <f t="array" ref="A31:B31">[1]RequirementsTraceabilityMatrix!D75:E75</f>
         <v>TC_72</v>
@@ -7151,7 +7190,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="148.5">
       <c r="A32" s="37" t="str" cm="1">
         <f t="array" ref="A32:B32">[1]RequirementsTraceabilityMatrix!D76:E76</f>
         <v>TC_73</v>
@@ -7179,7 +7218,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="33">
       <c r="A33" s="37" t="str" cm="1">
         <f t="array" ref="A33:B33">[1]RequirementsTraceabilityMatrix!D77:E77</f>
         <v>TC_74</v>
@@ -7244,7 +7283,7 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="62.5703125" style="18" customWidth="1"/>
@@ -7258,7 +7297,7 @@
     <col min="11" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="39.75" customHeight="1">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -7272,7 +7311,7 @@
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="43"/>
       <c r="B2" s="52" t="s">
         <v>1</v>
@@ -7294,7 +7333,7 @@
       </c>
       <c r="H2" s="43"/>
     </row>
-    <row r="3" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.25" thickBot="1">
       <c r="A3" s="43"/>
       <c r="B3" s="54" t="s">
         <v>255</v>
@@ -7310,14 +7349,14 @@
       </c>
       <c r="F3" s="56">
         <f ca="1">TODAY()</f>
-        <v>45224</v>
+        <v>45247</v>
       </c>
       <c r="G3" s="57" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="43"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="43"/>
       <c r="B4" s="53" t="s">
         <v>11</v>
@@ -7337,7 +7376,7 @@
       </c>
       <c r="H4" s="43"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A5" s="43"/>
       <c r="B5" s="75" t="s">
         <v>257</v>
@@ -7357,7 +7396,7 @@
       </c>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="61"/>
       <c r="B6" s="61"/>
       <c r="C6" s="64"/>
@@ -7366,7 +7405,7 @@
       <c r="F6" s="64"/>
       <c r="H6" s="64"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="43"/>
       <c r="B7" s="53" t="s">
         <v>11</v>
@@ -7383,7 +7422,7 @@
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="1:10" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="125.25" customHeight="1" thickBot="1">
       <c r="A8" s="43"/>
       <c r="B8" s="62" t="str">
         <f>$B$5</f>
@@ -7401,7 +7440,7 @@
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="63"/>
       <c r="B9" s="63"/>
       <c r="C9" s="64"/>
@@ -7411,7 +7450,7 @@
       <c r="G9" s="64"/>
       <c r="H9" s="64"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="21" t="s">
         <v>22</v>
       </c>
@@ -7440,7 +7479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="27" customHeight="1">
       <c r="A11" s="72" t="s">
         <v>261</v>
       </c>
@@ -7453,7 +7492,7 @@
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
     </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="33">
       <c r="A12" s="37" t="str" cm="1">
         <f t="array" ref="A12:B12">[1]RequirementsTraceabilityMatrix!D79:E79</f>
         <v>TC_76</v>
@@ -7480,7 +7519,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="49.5">
       <c r="A13" s="37" t="str" cm="1">
         <f t="array" ref="A13:B13">[1]RequirementsTraceabilityMatrix!D80:E80</f>
         <v>TC_77</v>
@@ -7507,7 +7546,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="33">
       <c r="A14" s="37" t="str" cm="1">
         <f t="array" ref="A14:B14">[1]RequirementsTraceabilityMatrix!D81:E81</f>
         <v>TC_78</v>
@@ -7537,7 +7576,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="33">
       <c r="A15" s="37" t="str" cm="1">
         <f t="array" ref="A15:B15">[1]RequirementsTraceabilityMatrix!D82:E82</f>
         <v>TC_79</v>
@@ -7564,7 +7603,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30.75" customHeight="1">
       <c r="A16" s="71" t="s">
         <v>273</v>
       </c>
@@ -7577,7 +7616,7 @@
       <c r="H16" s="71"/>
       <c r="I16" s="71"/>
     </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="33">
       <c r="A17" s="37" t="str" cm="1">
         <f t="array" ref="A17:B17">[1]RequirementsTraceabilityMatrix!D83:E83</f>
         <v>TC_80</v>
@@ -7604,7 +7643,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="33">
       <c r="A18" s="37" t="str" cm="1">
         <f t="array" ref="A18:B18">[1]RequirementsTraceabilityMatrix!D84:E84</f>
         <v>TC_81</v>
@@ -7631,7 +7670,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="33">
       <c r="A19" s="37" t="str" cm="1">
         <f t="array" ref="A19:B19">[1]RequirementsTraceabilityMatrix!D85:E85</f>
         <v>TC_82</v>
@@ -7658,7 +7697,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="28.5" customHeight="1">
       <c r="A20" s="71" t="s">
         <v>281</v>
       </c>
@@ -7671,7 +7710,7 @@
       <c r="H20" s="71"/>
       <c r="I20" s="71"/>
     </row>
-    <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="33">
       <c r="A21" s="37" t="str" cm="1">
         <f t="array" ref="A21:B21">[1]RequirementsTraceabilityMatrix!D86:E86</f>
         <v>TC_83</v>
@@ -7698,7 +7737,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="33">
       <c r="A22" s="37" t="str" cm="1">
         <f t="array" ref="A22:B22">[1]RequirementsTraceabilityMatrix!D87:E87</f>
         <v>TC_84</v>
@@ -7725,7 +7764,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="33">
       <c r="A23" s="37" t="str" cm="1">
         <f t="array" ref="A23:B23">[1]RequirementsTraceabilityMatrix!D88:E88</f>
         <v>TC_85</v>
@@ -7752,7 +7791,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="49.5">
       <c r="A24" s="37" t="str" cm="1">
         <f t="array" ref="A24:B24">[1]RequirementsTraceabilityMatrix!D89:E89</f>
         <v>TC_86</v>
@@ -7779,7 +7818,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="37" t="str" cm="1">
         <f t="array" ref="A25:B25">[1]RequirementsTraceabilityMatrix!D90:E90</f>
         <v>TC_87</v>
@@ -7806,7 +7845,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="25.5" customHeight="1">
       <c r="A26" s="71" t="s">
         <v>293</v>
       </c>
@@ -7819,7 +7858,7 @@
       <c r="H26" s="71"/>
       <c r="I26" s="71"/>
     </row>
-    <row r="27" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="66">
       <c r="A27" s="37" t="str" cm="1">
         <f t="array" ref="A27:B27">[1]RequirementsTraceabilityMatrix!D91:E91</f>
         <v>TC_88</v>
@@ -7846,7 +7885,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="49.5">
       <c r="A28" s="37" t="str" cm="1">
         <f t="array" ref="A28:B28">[1]RequirementsTraceabilityMatrix!D92:E92</f>
         <v>TC_89</v>
@@ -7873,7 +7912,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="49.5">
       <c r="A29" s="37" t="str" cm="1">
         <f t="array" ref="A29:B29">[1]RequirementsTraceabilityMatrix!D93:E93</f>
         <v>TC_90</v>
@@ -7900,7 +7939,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="49.5">
       <c r="A30" s="37" t="str" cm="1">
         <f t="array" ref="A30:B30">[1]RequirementsTraceabilityMatrix!D94:E94</f>
         <v>TC_91</v>
@@ -7927,7 +7966,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="49.5">
       <c r="A31" s="37" t="str" cm="1">
         <f t="array" ref="A31:B31">[1]RequirementsTraceabilityMatrix!D95:E95</f>
         <v>TC_92</v>
@@ -7954,7 +7993,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="49.5">
       <c r="A32" s="37" t="str" cm="1">
         <f t="array" ref="A32:B32">[1]RequirementsTraceabilityMatrix!D96:E96</f>
         <v>TC_93</v>
@@ -7981,7 +8020,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="27.75" customHeight="1">
       <c r="A33" s="71" t="s">
         <v>314</v>
       </c>
@@ -7994,7 +8033,7 @@
       <c r="H33" s="71"/>
       <c r="I33" s="71"/>
     </row>
-    <row r="34" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="33">
       <c r="A34" s="37" t="str" cm="1">
         <f t="array" ref="A34:B34">[1]RequirementsTraceabilityMatrix!D97:E97</f>
         <v>TC_94</v>
@@ -8021,7 +8060,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="49.5">
       <c r="A35" s="37" t="str" cm="1">
         <f t="array" ref="A35:B35">[1]RequirementsTraceabilityMatrix!D98:E98</f>
         <v>TC_95</v>
@@ -8048,7 +8087,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="49.5">
       <c r="A36" s="37" t="str" cm="1">
         <f t="array" ref="A36:B36">[1]RequirementsTraceabilityMatrix!D99:E99</f>
         <v>TC_96</v>
@@ -8075,7 +8114,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="49.5">
       <c r="A37" s="37" t="str" cm="1">
         <f t="array" ref="A37:B37">[1]RequirementsTraceabilityMatrix!D100:E100</f>
         <v>TC_97</v>
@@ -8102,7 +8141,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="49.5">
       <c r="A38" s="37" t="str" cm="1">
         <f t="array" ref="A38:B38">[1]RequirementsTraceabilityMatrix!D101:E101</f>
         <v>TC_98</v>
@@ -8164,11 +8203,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12ECB926-C2F9-4742-BF48-F58FF2F349E4}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="62.5703125" style="18" customWidth="1"/>
@@ -8183,7 +8222,7 @@
     <col min="11" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="39.75" customHeight="1">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -8196,7 +8235,7 @@
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="43"/>
       <c r="B2" s="52" t="s">
         <v>1</v>
@@ -8217,7 +8256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.25" thickBot="1">
       <c r="A3" s="43"/>
       <c r="B3" s="54" t="s">
         <v>255</v>
@@ -8233,13 +8272,13 @@
       </c>
       <c r="F3" s="56">
         <f ca="1">TODAY()</f>
-        <v>45224</v>
+        <v>45247</v>
       </c>
       <c r="G3" s="57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="43"/>
       <c r="B4" s="53" t="s">
         <v>11</v>
@@ -8258,7 +8297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A5" s="43"/>
       <c r="B5" s="75" t="s">
         <v>329</v>
@@ -8277,7 +8316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="61"/>
       <c r="B6" s="61"/>
       <c r="C6" s="64"/>
@@ -8286,7 +8325,7 @@
       <c r="F6" s="64"/>
       <c r="G6" s="64"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="43"/>
       <c r="B7" s="53" t="s">
         <v>11</v>
@@ -8303,7 +8342,7 @@
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="1:10" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="125.25" customHeight="1" thickBot="1">
       <c r="A8" s="43"/>
       <c r="B8" s="62" t="str">
         <f>$B$5</f>
@@ -8321,7 +8360,7 @@
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="63"/>
       <c r="B9" s="63"/>
       <c r="C9" s="64"/>
@@ -8331,7 +8370,7 @@
       <c r="G9" s="64"/>
       <c r="H9" s="64"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="21" t="s">
         <v>22</v>
       </c>
@@ -8360,7 +8399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="25.5" customHeight="1">
       <c r="A11" s="72" t="s">
         <v>333</v>
       </c>
@@ -8373,7 +8412,7 @@
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
     </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="33">
       <c r="A12" s="37" t="str" cm="1">
         <f t="array" ref="A12:B12">[1]RequirementsTraceabilityMatrix!D102:E102</f>
         <v>TC_99</v>
@@ -8400,7 +8439,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="33">
       <c r="A13" s="37" t="str" cm="1">
         <f t="array" ref="A13:B13">[1]RequirementsTraceabilityMatrix!D103:E103</f>
         <v>TC_100</v>
@@ -8427,7 +8466,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="33">
       <c r="A14" s="37" t="str" cm="1">
         <f t="array" ref="A14:B14">[1]RequirementsTraceabilityMatrix!D104:E104</f>
         <v>TC_101</v>
@@ -8454,7 +8493,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="33">
       <c r="A15" s="37" t="str" cm="1">
         <f t="array" ref="A15:B15">[1]RequirementsTraceabilityMatrix!D105:E105</f>
         <v>TC_102</v>
@@ -8481,7 +8520,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="24.75" customHeight="1">
       <c r="A16" s="71" t="s">
         <v>343</v>
       </c>
@@ -8494,7 +8533,7 @@
       <c r="H16" s="71"/>
       <c r="I16" s="71"/>
     </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="33">
       <c r="A17" s="37" t="str" cm="1">
         <f t="array" ref="A17:B17">[1]RequirementsTraceabilityMatrix!D106:E106</f>
         <v>TC_103</v>
@@ -8521,7 +8560,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="33">
       <c r="A18" s="37" t="str" cm="1">
         <f t="array" ref="A18:B18">[1]RequirementsTraceabilityMatrix!D107:E107</f>
         <v>TC_104</v>
@@ -8548,7 +8587,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="33">
       <c r="A19" s="37" t="str" cm="1">
         <f t="array" ref="A19:B19">[1]RequirementsTraceabilityMatrix!D108:E108</f>
         <v>TC_105</v>
@@ -8575,7 +8614,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="49.5">
       <c r="A20" s="37" t="str" cm="1">
         <f t="array" ref="A20:B20">[1]RequirementsTraceabilityMatrix!D109:E109</f>
         <v>TC_106</v>
@@ -8603,7 +8642,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="37" t="str" cm="1">
         <f t="array" ref="A21:B21">[1]RequirementsTraceabilityMatrix!D110:E110</f>
         <v>TC_107</v>
@@ -8630,7 +8669,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="29.25" customHeight="1">
       <c r="A22" s="71" t="s">
         <v>353</v>
       </c>
@@ -8643,7 +8682,7 @@
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
     </row>
-    <row r="23" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="49.5">
       <c r="A23" s="37" t="str" cm="1">
         <f t="array" ref="A23:B23">[1]RequirementsTraceabilityMatrix!D111:E111</f>
         <v>TC_108</v>
@@ -8670,7 +8709,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="49.5">
       <c r="A24" s="37" t="str" cm="1">
         <f t="array" ref="A24:B24">[1]RequirementsTraceabilityMatrix!D112:E112</f>
         <v>TC_109</v>
@@ -8697,7 +8736,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="49.5">
       <c r="A25" s="37" t="str" cm="1">
         <f t="array" ref="A25:B25">[1]RequirementsTraceabilityMatrix!D113:E113</f>
         <v>TC_110</v>
@@ -8724,7 +8763,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="49.5">
       <c r="A26" s="37" t="str" cm="1">
         <f t="array" ref="A26:B26">[1]RequirementsTraceabilityMatrix!D114:E114</f>
         <v>TC_111</v>
@@ -8752,7 +8791,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="33">
       <c r="A27" s="37" t="str" cm="1">
         <f t="array" ref="A27:B27">[1]RequirementsTraceabilityMatrix!D115:E115</f>
         <v>TC_112</v>
@@ -8779,7 +8818,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="49.5">
       <c r="A28" s="37" t="str" cm="1">
         <f t="array" ref="A28:B28">[1]RequirementsTraceabilityMatrix!D116:E116</f>
         <v>TC_113</v>
@@ -8806,7 +8845,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="25.5" customHeight="1">
       <c r="A29" s="71" t="s">
         <v>365</v>
       </c>
@@ -8819,7 +8858,7 @@
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
     </row>
-    <row r="30" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="49.5">
       <c r="A30" s="37" t="str" cm="1">
         <f t="array" ref="A30:B30">[1]RequirementsTraceabilityMatrix!D117:E117</f>
         <v>TC_114</v>
@@ -8846,7 +8885,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="49.5">
       <c r="A31" s="37" t="str" cm="1">
         <f t="array" ref="A31:B31">[1]RequirementsTraceabilityMatrix!D118:E118</f>
         <v>TC_115</v>
@@ -8873,7 +8912,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="49.5">
       <c r="A32" s="37" t="str" cm="1">
         <f t="array" ref="A32:B32">[1]RequirementsTraceabilityMatrix!D119:E119</f>
         <v>TC_116</v>
@@ -8900,7 +8939,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="49.5">
       <c r="A33" s="37" t="str" cm="1">
         <f t="array" ref="A33:B33">[1]RequirementsTraceabilityMatrix!D120:E120</f>
         <v>TC_117</v>
@@ -8928,7 +8967,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="33">
       <c r="A34" s="37" t="str" cm="1">
         <f t="array" ref="A34:B34">[1]RequirementsTraceabilityMatrix!D121:E121</f>
         <v>TC_118</v>
@@ -8955,7 +8994,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="49.5">
       <c r="A35" s="37" t="str" cm="1">
         <f t="array" ref="A35:B35">[1]RequirementsTraceabilityMatrix!D122:E122</f>
         <v>TC_119</v>
@@ -8982,7 +9021,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="31.5" customHeight="1">
       <c r="A36" s="71" t="s">
         <v>372</v>
       </c>
@@ -8995,7 +9034,7 @@
       <c r="H36" s="71"/>
       <c r="I36" s="71"/>
     </row>
-    <row r="37" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="49.5">
       <c r="A37" s="37" t="str" cm="1">
         <f t="array" ref="A37:B37">[1]RequirementsTraceabilityMatrix!D123:E123</f>
         <v>TC_120</v>
@@ -9022,7 +9061,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="49.5">
       <c r="A38" s="37" t="str" cm="1">
         <f t="array" ref="A38:B38">[1]RequirementsTraceabilityMatrix!D124:E124</f>
         <v>TC_121</v>
@@ -9049,7 +9088,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="49.5">
       <c r="A39" s="37" t="str" cm="1">
         <f t="array" ref="A39:B39">[1]RequirementsTraceabilityMatrix!D125:E125</f>
         <v>TC_122</v>
@@ -9076,7 +9115,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="49.5">
       <c r="A40" s="37" t="str" cm="1">
         <f t="array" ref="A40:B40">[1]RequirementsTraceabilityMatrix!D126:E126</f>
         <v>TC_123</v>
@@ -9103,7 +9142,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="49.5">
       <c r="A41" s="37" t="str" cm="1">
         <f t="array" ref="A41:B41">[1]RequirementsTraceabilityMatrix!D127:E127</f>
         <v>TC_124</v>
@@ -9130,7 +9169,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="49.5">
       <c r="A42" s="37" t="str" cm="1">
         <f t="array" ref="A42:B42">[1]RequirementsTraceabilityMatrix!D128:E128</f>
         <v>TC_125</v>
@@ -9192,11 +9231,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80D4219-CD67-466B-A3E5-A5994E639E7C}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="62.5703125" style="18" customWidth="1"/>
@@ -9210,7 +9249,7 @@
     <col min="11" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="39.75" customHeight="1">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -9224,7 +9263,7 @@
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="43"/>
       <c r="B2" s="52" t="s">
         <v>1</v>
@@ -9247,7 +9286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.25" thickBot="1">
       <c r="A3" s="43"/>
       <c r="B3" s="54" t="s">
         <v>255</v>
@@ -9264,14 +9303,14 @@
       </c>
       <c r="G3" s="56">
         <f ca="1">TODAY()</f>
-        <v>45224</v>
+        <v>45247</v>
       </c>
       <c r="H3" s="43"/>
       <c r="J3" s="57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="43"/>
       <c r="B4" s="53" t="s">
         <v>11</v>
@@ -9292,7 +9331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A5" s="43"/>
       <c r="B5" s="75" t="s">
         <v>380</v>
@@ -9313,7 +9352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="61"/>
       <c r="B6" s="61"/>
       <c r="C6" s="64"/>
@@ -9323,7 +9362,7 @@
       <c r="G6" s="64"/>
       <c r="H6" s="64"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="43"/>
       <c r="B7" s="53" t="s">
         <v>11</v>
@@ -9341,7 +9380,7 @@
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="1:10" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="125.25" customHeight="1" thickBot="1">
       <c r="A8" s="43"/>
       <c r="B8" s="62" t="str">
         <f>$B$5</f>
@@ -9360,7 +9399,7 @@
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="63"/>
       <c r="B9" s="63"/>
       <c r="C9" s="64"/>
@@ -9370,7 +9409,7 @@
       <c r="G9" s="64"/>
       <c r="H9" s="64"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="21" t="s">
         <v>22</v>
       </c>
@@ -9399,7 +9438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="27" customHeight="1">
       <c r="A11" s="72" t="s">
         <v>383</v>
       </c>
@@ -9412,7 +9451,7 @@
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
     </row>
-    <row r="12" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="49.5">
       <c r="A12" s="37" t="str" cm="1">
         <f t="array" ref="A12:B12">[1]RequirementsTraceabilityMatrix!D129:E129</f>
         <v>TC_126</v>
@@ -9439,7 +9478,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="110.45" customHeight="1">
       <c r="A13" s="37" t="str" cm="1">
         <f t="array" ref="A13:B13">[1]RequirementsTraceabilityMatrix!D130:E130</f>
         <v>TC_127</v>
@@ -9469,7 +9508,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="66">
       <c r="A14" s="37" t="str" cm="1">
         <f t="array" ref="A14:B14">[1]RequirementsTraceabilityMatrix!D131:E131</f>
         <v>TC_128</v>
@@ -9496,7 +9535,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="66">
       <c r="A15" s="37" t="str" cm="1">
         <f t="array" ref="A15:B15">[1]RequirementsTraceabilityMatrix!D132:E132</f>
         <v>TC_129</v>
@@ -9523,7 +9562,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="33">
       <c r="A16" s="37" t="str" cm="1">
         <f t="array" ref="A16:B16">[1]RequirementsTraceabilityMatrix!D133:E133</f>
         <v>TC_130</v>
@@ -9551,7 +9590,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="33">
       <c r="A17" s="37" t="str" cm="1">
         <f t="array" ref="A17:B17">[1]RequirementsTraceabilityMatrix!D134:E134</f>
         <v>TC_131</v>
@@ -9578,7 +9617,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="49.5">
       <c r="A18" s="37" t="str" cm="1">
         <f t="array" ref="A18:B18">[1]RequirementsTraceabilityMatrix!D135:E135</f>
         <v>TC_132</v>
@@ -9605,12 +9644,12 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="37"/>
       <c r="B19" s="41"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="65"/>
       <c r="B20" s="65"/>
       <c r="C20" s="65"/>
@@ -9621,12 +9660,12 @@
       <c r="H20" s="65"/>
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="37"/>
       <c r="B21" s="41"/>
       <c r="E21" s="37"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="77"/>
       <c r="B22" s="77"/>
       <c r="C22" s="77"/>
@@ -9637,22 +9676,22 @@
       <c r="H22" s="77"/>
       <c r="I22" s="77"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="37"/>
       <c r="B23" s="41"/>
       <c r="E23" s="37"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="37"/>
       <c r="B24" s="41"/>
       <c r="E24" s="37"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="37"/>
       <c r="B25" s="41"/>
       <c r="E25" s="37"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="65"/>
       <c r="B26" s="65"/>
       <c r="C26" s="65"/>
@@ -9663,17 +9702,17 @@
       <c r="H26" s="65"/>
       <c r="I26" s="65"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="37"/>
       <c r="B27" s="41"/>
       <c r="E27" s="37"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="37"/>
       <c r="B28" s="41"/>
       <c r="E28" s="37"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="77"/>
       <c r="B29" s="77"/>
       <c r="C29" s="77"/>
@@ -9684,22 +9723,22 @@
       <c r="H29" s="77"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="37"/>
       <c r="B30" s="41"/>
       <c r="E30" s="37"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="37"/>
       <c r="B31" s="41"/>
       <c r="E31" s="37"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="37"/>
       <c r="B32" s="41"/>
       <c r="E32" s="37"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
@@ -9710,16 +9749,16 @@
       <c r="H33" s="65"/>
       <c r="I33" s="65"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="37"/>
       <c r="B34" s="41"/>
       <c r="E34" s="37"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="37"/>
       <c r="B35" s="41"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="77"/>
       <c r="B36" s="77"/>
       <c r="C36" s="77"/>
@@ -9730,11 +9769,11 @@
       <c r="H36" s="77"/>
       <c r="I36" s="77"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="37"/>
       <c r="B37" s="41"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="37"/>
       <c r="B38" s="41"/>
     </row>
@@ -9771,11 +9810,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988E4D70-E48E-4865-9CBC-DB7AD5C8B3E8}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="49" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="62.5703125" style="18" customWidth="1"/>
@@ -9789,7 +9828,7 @@
     <col min="11" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="39.75" customHeight="1">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -9803,7 +9842,7 @@
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="43"/>
       <c r="B2" s="52" t="s">
         <v>1</v>
@@ -9826,7 +9865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.25" thickBot="1">
       <c r="A3" s="43"/>
       <c r="B3" s="54" t="s">
         <v>399</v>
@@ -9843,14 +9882,14 @@
       </c>
       <c r="G3" s="56">
         <f ca="1">TODAY()</f>
-        <v>45224</v>
+        <v>45247</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="43"/>
       <c r="B4" s="53" t="s">
         <v>11</v>
@@ -9871,7 +9910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A5" s="43"/>
       <c r="B5" s="75" t="s">
         <v>401</v>
@@ -9892,7 +9931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="61"/>
       <c r="B6" s="61"/>
       <c r="C6" s="64"/>
@@ -9902,7 +9941,7 @@
       <c r="G6" s="64"/>
       <c r="H6" s="64"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="43"/>
       <c r="B7" s="53" t="s">
         <v>11</v>
@@ -9919,7 +9958,7 @@
       <c r="H7" s="43"/>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="1:10" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="125.25" customHeight="1" thickBot="1">
       <c r="A8" s="43"/>
       <c r="B8" s="62" t="str">
         <f>$B$5</f>
@@ -9938,7 +9977,7 @@
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="63"/>
       <c r="B9" s="63"/>
       <c r="C9" s="64"/>
@@ -9948,7 +9987,7 @@
       <c r="G9" s="64"/>
       <c r="H9" s="64"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="21" t="s">
         <v>22</v>
       </c>
@@ -9977,7 +10016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="27" customHeight="1">
       <c r="A11" s="72" t="s">
         <v>404</v>
       </c>
@@ -9990,7 +10029,7 @@
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
     </row>
-    <row r="12" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="49.5">
       <c r="A12" s="37" t="str" cm="1">
         <f t="array" ref="A12:B13">[1]RequirementsTraceabilityMatrix!$D$136:$E$137</f>
         <v>TC_133</v>
@@ -10017,7 +10056,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="110.45" customHeight="1">
       <c r="A13" s="37" t="str">
         <v>TC_134</v>
       </c>
@@ -10043,7 +10082,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18">
       <c r="A14" s="72" t="s">
         <v>410</v>
       </c>
@@ -10056,7 +10095,7 @@
       <c r="H14" s="72"/>
       <c r="I14" s="72"/>
     </row>
-    <row r="15" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="66">
       <c r="A15" s="37" t="str" cm="1">
         <f t="array" ref="A15:B15">[1]RequirementsTraceabilityMatrix!D138:E138</f>
         <v>TC_135</v>
@@ -10083,7 +10122,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30">
       <c r="A16" s="37" t="str" cm="1">
         <f t="array" ref="A16:B16">[1]RequirementsTraceabilityMatrix!D139:E139</f>
         <v>TC_136</v>
@@ -10110,7 +10149,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30">
       <c r="A17" s="37" t="str" cm="1">
         <f t="array" ref="A17:B17">[1]RequirementsTraceabilityMatrix!D140:E140</f>
         <v>TC_137</v>
@@ -10137,7 +10176,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="33">
       <c r="A18" s="37" t="str" cm="1">
         <f t="array" ref="A18:B18">[1]RequirementsTraceabilityMatrix!D141:E141</f>
         <v>TC_138</v>
@@ -10164,7 +10203,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="49.5">
       <c r="A19" s="37" t="str" cm="1">
         <f t="array" ref="A19:B19">[1]RequirementsTraceabilityMatrix!D142:E142</f>
         <v>TC_139</v>
@@ -10191,7 +10230,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="33">
       <c r="A20" s="37" t="str" cm="1">
         <f t="array" ref="A20:B20">[1]RequirementsTraceabilityMatrix!D143:E143</f>
         <v>TC_140</v>
@@ -10219,7 +10258,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="33">
       <c r="A21" s="37" t="str" cm="1">
         <f t="array" ref="A21:B21">[1]RequirementsTraceabilityMatrix!D144:E144</f>
         <v>TC_141</v>
@@ -10246,7 +10285,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="30">
       <c r="A22" s="37" t="str" cm="1">
         <f t="array" ref="A22:B22">[1]RequirementsTraceabilityMatrix!D145:E145</f>
         <v>TC_142</v>
@@ -10274,65 +10313,64 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+    <row r="23" spans="1:9" ht="28.5" customHeight="1">
+      <c r="A23" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-    </row>
-    <row r="24" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="str" cm="1">
-        <f t="array" ref="A24:B24">[1]RequirementsTraceabilityMatrix!D146:E146</f>
+      <c r="B23" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="67">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18">
+      <c r="A24" s="72" t="s">
+        <v>438</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="37" t="str" cm="1">
+        <f t="array" ref="A25:B25">[1]RequirementsTraceabilityMatrix!D146:E146</f>
         <v>TC_143</v>
       </c>
-      <c r="B24" s="34" t="str">
+      <c r="B25" s="34" t="str">
         <v>Verify if the Barangay Treasurer can access Process Online Payment from the dropdown</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="67">
-        <v>45223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="str" cm="1">
-        <f t="array" ref="A25:B25">[1]RequirementsTraceabilityMatrix!D147:E147</f>
-        <v>TC_144</v>
-      </c>
-      <c r="B25" s="34" t="str">
-        <v>Verify if the Barangay Treasurer can Confirm a payment from the list</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="G25" s="31" t="s">
         <v>35</v>
@@ -10341,25 +10379,25 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30">
       <c r="A26" s="37" t="str" cm="1">
-        <f t="array" ref="A26:B26">[1]RequirementsTraceabilityMatrix!D148:E148</f>
-        <v>TC_145</v>
+        <f t="array" ref="A26:B26">[1]RequirementsTraceabilityMatrix!D147:E147</f>
+        <v>TC_144</v>
       </c>
       <c r="B26" s="34" t="str">
-        <v>Barangay Treasurer clicks "Proceed" from the Payment details screen</v>
+        <v>Verify if the Barangay Treasurer can Confirm a payment from the list</v>
       </c>
       <c r="C26" s="35" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G26" s="31" t="s">
         <v>35</v>
@@ -10368,80 +10406,80 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30">
       <c r="A27" s="37" t="str" cm="1">
-        <f t="array" ref="A27:B27">[1]RequirementsTraceabilityMatrix!D149:E149</f>
-        <v>TC_146</v>
+        <f t="array" ref="A27:B27">[1]RequirementsTraceabilityMatrix!D148:E148</f>
+        <v>TC_145</v>
       </c>
       <c r="B27" s="34" t="str">
-        <v>Barangay Treasurer proceeds to confirm the payment with valid and complete Reference, OR, and CTC numbers input</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>438</v>
+        <v>Barangay Treasurer clicks "Proceed" from the Payment details screen</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G27" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="65"/>
       <c r="I27" s="67">
         <v>45223</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="44.25">
       <c r="A28" s="37" t="str" cm="1">
-        <f t="array" ref="A28:B28">[1]RequirementsTraceabilityMatrix!D150:E150</f>
-        <v>TC_147</v>
+        <f t="array" ref="A28:B28">[1]RequirementsTraceabilityMatrix!D149:E149</f>
+        <v>TC_146</v>
       </c>
       <c r="B28" s="34" t="str">
-        <v>Barangay Treasurer proceeds to confirm the payment with invalid but complete Reference, OR, and CTC numbers input</v>
+        <v>Barangay Treasurer proceeds to confirm the payment with valid and complete Reference, OR, and CTC numbers input</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>428</v>
+        <v>444</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>425</v>
       </c>
       <c r="G28" s="31" t="s">
         <v>35</v>
       </c>
+      <c r="H28" s="65"/>
       <c r="I28" s="67">
         <v>45223</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="44.25">
       <c r="A29" s="37" t="str" cm="1">
-        <f t="array" ref="A29:B29">[1]RequirementsTraceabilityMatrix!D151:E151</f>
-        <v>TC_148</v>
+        <f t="array" ref="A29:B29">[1]RequirementsTraceabilityMatrix!D150:E150</f>
+        <v>TC_147</v>
       </c>
       <c r="B29" s="34" t="str">
-        <v>Barangay Treasurer proceeds to confirm the payment with valid but incomplete Reference, OR, and CTC numbers input</v>
+        <v>Barangay Treasurer proceeds to confirm the payment with invalid but complete Reference, OR, and CTC numbers input</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G29" s="31" t="s">
         <v>35</v>
@@ -10450,19 +10488,19 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="44.25">
       <c r="A30" s="37" t="str" cm="1">
-        <f t="array" ref="A30:B30">[1]RequirementsTraceabilityMatrix!D152:E152</f>
-        <v>TC_149</v>
+        <f t="array" ref="A30:B30">[1]RequirementsTraceabilityMatrix!D151:E151</f>
+        <v>TC_148</v>
       </c>
       <c r="B30" s="34" t="str">
-        <v>Barangay Treasurer proceeds to confirm the payment without Reference, OR, and CTC numbers input</v>
+        <v>Barangay Treasurer proceeds to confirm the payment with valid but incomplete Reference, OR, and CTC numbers input</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>430</v>
@@ -10477,17 +10515,60 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="34"/>
-      <c r="E31" s="37"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="34"/>
-      <c r="E32" s="37"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="44.25">
+      <c r="A31" s="37" t="str" cm="1">
+        <f t="array" ref="A31:B31">[1]RequirementsTraceabilityMatrix!D152:E152</f>
+        <v>TC_149</v>
+      </c>
+      <c r="B31" s="34" t="str">
+        <v>Barangay Treasurer proceeds to confirm the payment without Reference, OR, and CTC numbers input</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="67">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="45" customHeight="1">
+      <c r="A32" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="67">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
@@ -10498,16 +10579,16 @@
       <c r="H33" s="65"/>
       <c r="I33" s="65"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="37"/>
       <c r="B34" s="41"/>
       <c r="E34" s="37"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="37"/>
       <c r="B35" s="41"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="77"/>
       <c r="B36" s="77"/>
       <c r="C36" s="77"/>
@@ -10518,11 +10599,11 @@
       <c r="H36" s="77"/>
       <c r="I36" s="77"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="37"/>
       <c r="B37" s="41"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="37"/>
       <c r="B38" s="41"/>
     </row>
@@ -10533,7 +10614,7 @@
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="A36:I36"/>
     <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:D3">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="HIGH">
@@ -10564,122 +10645,122 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.7109375" customWidth="1"/>
     <col min="2" max="2" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="44" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="44"/>
       <c r="B4" s="46"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="44" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="44" t="s">
         <v>74</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="44"/>
       <c r="B7" s="46" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="44" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="44" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="44"/>
       <c r="B10" s="46" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="44" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="44" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="44"/>
       <c r="B13" s="46"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="44" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B14" s="46"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="44" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B15" s="46"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="44"/>
       <c r="B16" s="46"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="44" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B17" s="46"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="44" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B18" s="46"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="47" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="300">
       <c r="A21" s="48" t="s">
         <v>58</v>
       </c>
@@ -10691,6 +10772,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="becc6418-98a4-4be0-bb44-3ce60d9e2ca3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8bf23f84-f8bc-4e67-ab33-02601704301c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10699,7 +10791,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006E296302A21A604AB30B08CDD982AED5" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4a2e24ddf9d3ff53ecfb88a36bb32033">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8bf23f84-f8bc-4e67-ab33-02601704301c" xmlns:ns3="becc6418-98a4-4be0-bb44-3ce60d9e2ca3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85173b95bb32453a086c351bdaabae72" ns2:_="" ns3:_="">
     <xsd:import namespace="8bf23f84-f8bc-4e67-ab33-02601704301c"/>
@@ -10922,57 +11014,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="becc6418-98a4-4be0-bb44-3ce60d9e2ca3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8bf23f84-f8bc-4e67-ab33-02601704301c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CEC2122-3CC9-42FC-942E-F82E68BABC85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE2A4785-1F3A-45BB-906D-D2D678DFBCF2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BD8FFD-1987-418B-859E-94BAED43CE74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8bf23f84-f8bc-4e67-ab33-02601704301c"/>
-    <ds:schemaRef ds:uri="becc6418-98a4-4be0-bb44-3ce60d9e2ca3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CEC2122-3CC9-42FC-942E-F82E68BABC85}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE2A4785-1F3A-45BB-906D-D2D678DFBCF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8bf23f84-f8bc-4e67-ab33-02601704301c"/>
-    <ds:schemaRef ds:uri="becc6418-98a4-4be0-bb44-3ce60d9e2ca3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BD8FFD-1987-418B-859E-94BAED43CE74}"/>
 </file>